--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_VOC.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>399.1084027903956</v>
+        <v>124.8138762743759</v>
       </c>
       <c r="C2">
-        <v>0.05260307374967019</v>
+        <v>0.01645065223568178</v>
       </c>
       <c r="D2">
-        <v>17.13473118656581</v>
+        <v>5.358574771571263</v>
       </c>
       <c r="E2">
-        <v>6.242599395331651</v>
+        <v>1.952259143410269</v>
       </c>
       <c r="F2">
-        <v>5.898975429635085</v>
+        <v>1.844797013223333</v>
       </c>
       <c r="G2">
-        <v>121.7217309408504</v>
+        <v>38.0662520742091</v>
       </c>
       <c r="H2">
-        <v>1.347010334794728</v>
+        <v>0.4212529229951372</v>
       </c>
       <c r="I2">
-        <v>551.5060531513229</v>
+        <v>172.4734628520207</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>394.5730800314138</v>
+        <v>123.395536771258</v>
       </c>
       <c r="C3">
-        <v>0.05589076585902457</v>
+        <v>0.01747881800041188</v>
       </c>
       <c r="D3">
-        <v>19.58254992750378</v>
+        <v>6.124085453224295</v>
       </c>
       <c r="E3">
-        <v>6.041225221288696</v>
+        <v>1.889283042009937</v>
       </c>
       <c r="F3">
-        <v>5.950048809978246</v>
+        <v>1.860769281736089</v>
       </c>
       <c r="G3">
-        <v>136.7800894077597</v>
+        <v>42.77547913493599</v>
       </c>
       <c r="H3">
-        <v>1.426246236841476</v>
+        <v>0.4460325067007334</v>
       </c>
       <c r="I3">
-        <v>564.4091304006448</v>
+        <v>176.5086650078655</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>446.0489933458572</v>
+        <v>139.4936901316462</v>
       </c>
       <c r="C4">
-        <v>0.05698666322880936</v>
+        <v>0.01782153992198859</v>
       </c>
       <c r="D4">
-        <v>21.29602304616036</v>
+        <v>6.659942930381425</v>
       </c>
       <c r="E4">
-        <v>7.048096091503476</v>
+        <v>2.204163549011595</v>
       </c>
       <c r="F4">
-        <v>7.022589797184624</v>
+        <v>2.196186920503967</v>
       </c>
       <c r="G4">
-        <v>104.1536460627895</v>
+        <v>32.57215383669436</v>
       </c>
       <c r="H4">
-        <v>0.7923590204674864</v>
+        <v>0.2477958370559631</v>
       </c>
       <c r="I4">
-        <v>586.4186940271916</v>
+        <v>183.3917547452155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>481.4245108659148</v>
+        <v>150.5567382559659</v>
       </c>
       <c r="C5">
-        <v>0.03616461320289825</v>
+        <v>0.01130982341203122</v>
       </c>
       <c r="D5">
-        <v>21.78558679434796</v>
+        <v>6.813045066712031</v>
       </c>
       <c r="E5">
-        <v>7.450844439589391</v>
+        <v>2.330115751812257</v>
       </c>
       <c r="F5">
-        <v>6.103268951007728</v>
+        <v>1.908686087274357</v>
       </c>
       <c r="G5">
-        <v>70.27233951224351</v>
+        <v>21.97639295005886</v>
       </c>
       <c r="H5">
-        <v>0.5546513143272407</v>
+        <v>0.1734570859391742</v>
       </c>
       <c r="I5">
-        <v>587.6273664906336</v>
+        <v>183.7697450211746</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>584.60310363275</v>
+        <v>182.8239619518983</v>
       </c>
       <c r="C6">
-        <v>0.05369897111945499</v>
+        <v>0.01679337415725848</v>
       </c>
       <c r="D6">
-        <v>15.42125806790923</v>
+        <v>4.822717294414135</v>
       </c>
       <c r="E6">
-        <v>13.894818008964</v>
+        <v>4.345350996622855</v>
       </c>
       <c r="F6">
-        <v>4.366774019340256</v>
+        <v>1.365628957840649</v>
       </c>
       <c r="G6">
-        <v>38.90075937284913</v>
+        <v>12.16550324021115</v>
       </c>
       <c r="H6">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I6">
-        <v>658.9043660159139</v>
+        <v>206.0603270729619</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>583.6960390809538</v>
+        <v>182.5402940512749</v>
       </c>
       <c r="C7">
-        <v>0.02958922898418949</v>
+        <v>0.009253491882571</v>
       </c>
       <c r="D7">
-        <v>11.01518433422088</v>
+        <v>3.444798067438667</v>
       </c>
       <c r="E7">
-        <v>15.30443722726469</v>
+        <v>4.786183706425175</v>
       </c>
       <c r="F7">
-        <v>2.502595636814884</v>
+        <v>0.7826411571250501</v>
       </c>
       <c r="G7">
-        <v>18.82294808363665</v>
+        <v>5.886533825908625</v>
       </c>
       <c r="H7">
-        <v>0.9508308245609839</v>
+        <v>0.2973550044671557</v>
       </c>
       <c r="I7">
-        <v>632.3216244164361</v>
+        <v>197.7470593045221</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>407.7255160324611</v>
+        <v>127.5087213302999</v>
       </c>
       <c r="C8">
-        <v>0.03068512635397427</v>
+        <v>0.009596213804147703</v>
       </c>
       <c r="D8">
-        <v>9.546493089658096</v>
+        <v>2.985491658446845</v>
       </c>
       <c r="E8">
-        <v>9.867334528104866</v>
+        <v>3.085828968616231</v>
       </c>
       <c r="F8">
-        <v>1.915251762868534</v>
+        <v>0.5989600692283548</v>
       </c>
       <c r="G8">
-        <v>22.587537700364</v>
+        <v>7.063840591090347</v>
       </c>
       <c r="H8">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I8">
-        <v>451.7520541418575</v>
+        <v>141.2772184151914</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>332.8926905092617</v>
+        <v>104.1061195288545</v>
       </c>
       <c r="C9">
-        <v>0.02739743424461989</v>
+        <v>0.008568048039417591</v>
       </c>
       <c r="D9">
-        <v>6.853892474626325</v>
+        <v>2.143429908628505</v>
       </c>
       <c r="E9">
-        <v>14.70031470513583</v>
+        <v>4.597255402224185</v>
       </c>
       <c r="F9">
-        <v>1.09807767737796</v>
+        <v>0.3434037730242567</v>
       </c>
       <c r="G9">
-        <v>12.54863205575778</v>
+        <v>3.924355883939082</v>
       </c>
       <c r="H9">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I9">
-        <v>368.3587125625445</v>
+        <v>115.1974712958267</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>246.2680258127101</v>
+        <v>77.01583501930241</v>
       </c>
       <c r="C10">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D10">
-        <v>5.385201230063543</v>
+        <v>1.684123499636682</v>
       </c>
       <c r="E10">
-        <v>9.665960354061907</v>
+        <v>3.0228528672159</v>
       </c>
       <c r="F10">
-        <v>0.9959309166916375</v>
+        <v>0.3114592359987444</v>
       </c>
       <c r="G10">
-        <v>12.54863205575778</v>
+        <v>3.924355883939082</v>
       </c>
       <c r="H10">
-        <v>0.3169436081869947</v>
+        <v>0.09911833482238522</v>
       </c>
       <c r="I10">
-        <v>275.2004201301281</v>
+        <v>86.06391383550358</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>188.8961929115908</v>
+        <v>59.07384030486087</v>
       </c>
       <c r="C11">
-        <v>0.03178102372375907</v>
+        <v>0.009938935725724405</v>
       </c>
       <c r="D11">
-        <v>5.385201230063543</v>
+        <v>1.684123499636682</v>
       </c>
       <c r="E11">
-        <v>4.430231828945042</v>
+        <v>1.385474230807288</v>
       </c>
       <c r="F11">
-        <v>1.021467606863218</v>
+        <v>0.3194453702551226</v>
       </c>
       <c r="G11">
-        <v>18.82294808363665</v>
+        <v>5.886533825908625</v>
       </c>
       <c r="H11">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I11">
-        <v>218.8255303909633</v>
+        <v>68.4336949183111</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>116.3310287678824</v>
+        <v>36.38040825497434</v>
       </c>
       <c r="C12">
-        <v>0.02958922898418949</v>
+        <v>0.009253491882571</v>
       </c>
       <c r="D12">
-        <v>1.223909370468987</v>
+        <v>0.3827553408265185</v>
       </c>
       <c r="E12">
-        <v>1.610993392343652</v>
+        <v>0.5038088112026501</v>
       </c>
       <c r="F12">
-        <v>0.6128805641179307</v>
+        <v>0.1916672221530735</v>
       </c>
       <c r="G12">
-        <v>20.07781128921244</v>
+        <v>6.278969414302527</v>
       </c>
       <c r="I12">
-        <v>139.8862126130096</v>
+        <v>43.74686253534168</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>72.5651641437083</v>
+        <v>22.69343204988653</v>
       </c>
       <c r="C13">
-        <v>0.03616461320289825</v>
+        <v>0.01130982341203122</v>
       </c>
       <c r="D13">
-        <v>0.9791274963751893</v>
+        <v>0.3062042726612148</v>
       </c>
       <c r="E13">
-        <v>0.8054966961718261</v>
+        <v>0.251904405601325</v>
       </c>
       <c r="F13">
-        <v>0.8171740854905745</v>
+        <v>0.2555562962040979</v>
       </c>
       <c r="G13">
-        <v>18.82294808363665</v>
+        <v>5.886533825908625</v>
       </c>
       <c r="H13">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I13">
-        <v>94.1053110206322</v>
+        <v>29.42972025737942</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>45.57999372776681</v>
+        <v>14.25431200633497</v>
       </c>
       <c r="C14">
-        <v>0.02958922898418949</v>
+        <v>0.009253491882571</v>
       </c>
       <c r="D14">
-        <v>0.9791274963751893</v>
+        <v>0.3062042726612148</v>
       </c>
       <c r="E14">
-        <v>0.6041225221288692</v>
+        <v>0.1889283042009938</v>
       </c>
       <c r="F14">
-        <v>0.6894906346326719</v>
+        <v>0.2156256249222077</v>
       </c>
       <c r="G14">
-        <v>40.15562257842488</v>
+        <v>12.55793882860505</v>
       </c>
       <c r="H14">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I14">
-        <v>88.11718209035935</v>
+        <v>27.55704211231261</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>33.78815455441418</v>
+        <v>10.56662929822842</v>
       </c>
       <c r="C15">
-        <v>0.01863025528634152</v>
+        <v>0.005826272666803961</v>
       </c>
       <c r="D15">
-        <v>0.7343456222813922</v>
+        <v>0.2296532044959112</v>
       </c>
       <c r="F15">
-        <v>0.4596604230884482</v>
+        <v>0.1437504166148051</v>
       </c>
       <c r="G15">
-        <v>31.37158013939443</v>
+        <v>9.810889709847698</v>
       </c>
       <c r="H15">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I15">
-        <v>66.53084279855828</v>
+        <v>20.80630806926483</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>35.6022836580069</v>
+        <v>11.13396509947558</v>
       </c>
       <c r="C16">
-        <v>0.00986307632806316</v>
+        <v>0.003084497294190333</v>
       </c>
       <c r="D16">
-        <v>2.447818740937973</v>
+        <v>0.7655106816530369</v>
       </c>
       <c r="E16">
-        <v>1.006870870214782</v>
+        <v>0.3148805070016564</v>
       </c>
       <c r="F16">
-        <v>0.5362704936031895</v>
+        <v>0.1677088193839393</v>
       </c>
       <c r="G16">
-        <v>36.39103296169755</v>
+        <v>11.38063206342334</v>
       </c>
       <c r="H16">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I16">
-        <v>76.07337570283522</v>
+        <v>23.79056125193733</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>81.40904352372272</v>
+        <v>25.45919408096645</v>
       </c>
       <c r="C17">
-        <v>0.00986307632806316</v>
+        <v>0.003084497294190333</v>
       </c>
       <c r="D17">
-        <v>2.447818740937973</v>
+        <v>0.7655106816530369</v>
       </c>
       <c r="E17">
-        <v>0.6041225221288692</v>
+        <v>0.1889283042009938</v>
       </c>
       <c r="F17">
-        <v>0.970394226520057</v>
+        <v>0.3034731017423664</v>
       </c>
       <c r="G17">
-        <v>48.9396650174553</v>
+        <v>15.30498794736242</v>
       </c>
       <c r="H17">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I17">
-        <v>134.5393789111865</v>
+        <v>42.07473778063065</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>173.7028616690017</v>
+        <v>54.3224029694159</v>
       </c>
       <c r="C18">
-        <v>0.01643846054677193</v>
+        <v>0.005140828823650554</v>
       </c>
       <c r="D18">
-        <v>5.140419355969743</v>
+        <v>1.607572431471378</v>
       </c>
       <c r="E18">
-        <v>6.84672191746052</v>
+        <v>2.141187447611264</v>
       </c>
       <c r="F18">
-        <v>2.247228735099079</v>
+        <v>0.7027798145612695</v>
       </c>
       <c r="G18">
-        <v>63.99802348436467</v>
+        <v>20.01421500808931</v>
       </c>
       <c r="H18">
-        <v>0.4754154122804919</v>
+        <v>0.1486775022335778</v>
       </c>
       <c r="I18">
-        <v>252.4271090347229</v>
+        <v>78.94197600220635</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>302.9595602999823</v>
+        <v>94.74507880827628</v>
       </c>
       <c r="C19">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D19">
-        <v>13.46300307515884</v>
+        <v>4.210308749091705</v>
       </c>
       <c r="E19">
-        <v>18.72779818599495</v>
+        <v>5.856777430230805</v>
       </c>
       <c r="F19">
-        <v>4.136943807796033</v>
+        <v>1.293753749533246</v>
       </c>
       <c r="G19">
-        <v>90.350150801456</v>
+        <v>28.25536236436139</v>
       </c>
       <c r="H19">
-        <v>0.7923590204674864</v>
+        <v>0.2477958370559631</v>
       </c>
       <c r="I19">
-        <v>430.4495413435117</v>
+        <v>134.6152459331378</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>515.8929638341763</v>
+        <v>161.3361184796621</v>
       </c>
       <c r="C20">
-        <v>0.02191794739569591</v>
+        <v>0.006854438431534072</v>
       </c>
       <c r="D20">
-        <v>16.64516743837822</v>
+        <v>5.205472635240653</v>
       </c>
       <c r="E20">
-        <v>18.32504983790905</v>
+        <v>5.730825227430145</v>
       </c>
       <c r="F20">
-        <v>4.698750991570802</v>
+        <v>1.469448703173563</v>
       </c>
       <c r="G20">
-        <v>124.231457352002</v>
+        <v>38.85112325099691</v>
       </c>
       <c r="H20">
-        <v>1.584718040934973</v>
+        <v>0.4955916741119261</v>
       </c>
       <c r="I20">
-        <v>681.400025442367</v>
+        <v>213.0954344090468</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>543.7851988019141</v>
+        <v>170.0589064238373</v>
       </c>
       <c r="C21">
-        <v>0.03287692109354386</v>
+        <v>0.01028165764730111</v>
       </c>
       <c r="D21">
-        <v>13.21822120106505</v>
+        <v>4.1337576809264</v>
       </c>
       <c r="E21">
-        <v>12.68657296470627</v>
+        <v>3.96749438822087</v>
       </c>
       <c r="F21">
-        <v>4.060333737281291</v>
+        <v>1.269795346764112</v>
       </c>
       <c r="G21">
-        <v>101.6439196516379</v>
+        <v>31.78728265990657</v>
       </c>
       <c r="H21">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I21">
-        <v>676.5364259063527</v>
+        <v>211.5744323291809</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>437.4318801037919</v>
+        <v>136.7988450757222</v>
       </c>
       <c r="C22">
-        <v>0.04712358690074621</v>
+        <v>0.01473704262779826</v>
       </c>
       <c r="D22">
-        <v>23.00949616481695</v>
+        <v>7.19580040753855</v>
       </c>
       <c r="E22">
-        <v>9.867334528104866</v>
+        <v>3.085828968616231</v>
       </c>
       <c r="F22">
-        <v>6.81829627581198</v>
+        <v>2.132297846452942</v>
       </c>
       <c r="G22">
-        <v>179.4454383973364</v>
+        <v>56.11828914032887</v>
       </c>
       <c r="H22">
-        <v>1.347010334794728</v>
+        <v>0.4212529229951372</v>
       </c>
       <c r="I22">
-        <v>657.9665793915575</v>
+        <v>205.7670514042817</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>343.5506989928691</v>
+        <v>107.4392173611815</v>
       </c>
       <c r="C23">
-        <v>0.04712358690074621</v>
+        <v>0.01473704262779826</v>
       </c>
       <c r="D23">
-        <v>18.60342243112859</v>
+        <v>5.817881180563083</v>
       </c>
       <c r="E23">
-        <v>6.041225221288696</v>
+        <v>1.889283042009937</v>
       </c>
       <c r="F23">
-        <v>6.716149515125658</v>
+        <v>2.10035330942743</v>
       </c>
       <c r="G23">
-        <v>174.4259855750331</v>
+        <v>54.54854678675322</v>
       </c>
       <c r="H23">
-        <v>0.7923590204674864</v>
+        <v>0.2477958370559631</v>
       </c>
       <c r="I23">
-        <v>550.1769643428133</v>
+        <v>172.057814559619</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>390.2645234103813</v>
+        <v>122.048114243296</v>
       </c>
       <c r="C24">
-        <v>0.04821948427053101</v>
+        <v>0.01507976454937496</v>
       </c>
       <c r="D24">
-        <v>19.33776805340998</v>
+        <v>6.047534385058996</v>
       </c>
       <c r="E24">
-        <v>9.263212005976001</v>
+        <v>2.896900664415238</v>
       </c>
       <c r="F24">
-        <v>6.971516416841463</v>
+        <v>2.18021465199121</v>
       </c>
       <c r="G24">
-        <v>154.3481742858206</v>
+        <v>48.2695773724507</v>
       </c>
       <c r="H24">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I24">
-        <v>581.8973675996816</v>
+        <v>181.977792339579</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>374.3908937539451</v>
+        <v>117.0839259823833</v>
       </c>
       <c r="C25">
-        <v>0.04493179216117662</v>
+        <v>0.01405159878464485</v>
       </c>
       <c r="D25">
-        <v>13.95256682334644</v>
+        <v>4.363410885422311</v>
       </c>
       <c r="E25">
-        <v>8.860463657890085</v>
+        <v>2.770948461614576</v>
       </c>
       <c r="F25">
-        <v>4.698750991570802</v>
+        <v>1.469448703173563</v>
       </c>
       <c r="G25">
-        <v>135.525226202184</v>
+        <v>42.38304354654207</v>
       </c>
       <c r="H25">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I25">
-        <v>538.5028999477054</v>
+        <v>168.4069637660933</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>376.6585551334359</v>
+        <v>117.7930957339422</v>
       </c>
       <c r="C26">
-        <v>0.03945230531225264</v>
+        <v>0.01233798917676133</v>
       </c>
       <c r="D26">
-        <v>13.21822120106505</v>
+        <v>4.1337576809264</v>
       </c>
       <c r="E26">
-        <v>6.242599395331651</v>
+        <v>1.952259143410269</v>
       </c>
       <c r="F26">
-        <v>5.975585500149826</v>
+        <v>1.868755415992467</v>
       </c>
       <c r="G26">
-        <v>141.7995422300628</v>
+        <v>44.34522148851162</v>
       </c>
       <c r="H26">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I26">
-        <v>545.5979097083392</v>
+        <v>170.6257987097773</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>406.1381530668176</v>
+        <v>127.0123025042087</v>
       </c>
       <c r="C27">
-        <v>0.04273999742160702</v>
+        <v>0.01336615494149144</v>
       </c>
       <c r="D27">
-        <v>21.05124117206657</v>
+        <v>6.58339186221612</v>
       </c>
       <c r="E27">
-        <v>9.061837831933047</v>
+        <v>2.833924563014907</v>
       </c>
       <c r="F27">
-        <v>5.77129197877718</v>
+        <v>1.804866341941442</v>
       </c>
       <c r="G27">
-        <v>110.4279620906684</v>
+        <v>34.53433177866391</v>
       </c>
       <c r="H27">
-        <v>1.18853853070123</v>
+        <v>0.3716937555839445</v>
       </c>
       <c r="I27">
-        <v>553.6817646683855</v>
+        <v>173.1538769605705</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>417.2496938263229</v>
+        <v>130.4872342868476</v>
       </c>
       <c r="C28">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D28">
-        <v>21.78558679434796</v>
+        <v>6.813045066712031</v>
       </c>
       <c r="E28">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F28">
-        <v>5.643608527919279</v>
+        <v>1.764935670659552</v>
       </c>
       <c r="G28">
-        <v>130.5057733798808</v>
+        <v>40.81330119296645</v>
       </c>
       <c r="H28">
-        <v>1.18853853070123</v>
+        <v>0.3716937555839445</v>
       </c>
       <c r="I28">
-        <v>583.6599318352913</v>
+        <v>182.5290021685151</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>481.6512770038639</v>
+        <v>150.6276552311218</v>
       </c>
       <c r="C29">
-        <v>0.03616461320289825</v>
+        <v>0.01130982341203122</v>
       </c>
       <c r="D29">
-        <v>16.40038556428443</v>
+        <v>5.128921567075349</v>
       </c>
       <c r="E29">
-        <v>9.867334528104866</v>
+        <v>3.085828968616231</v>
       </c>
       <c r="F29">
-        <v>5.286094865517152</v>
+        <v>1.653129791070258</v>
       </c>
       <c r="G29">
-        <v>89.09528759588019</v>
+        <v>27.86292677596747</v>
       </c>
       <c r="H29">
-        <v>1.505482138888225</v>
+        <v>0.4708120904063298</v>
       </c>
       <c r="I29">
-        <v>603.8420263097416</v>
+        <v>188.8405842476695</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>575.7592242527359</v>
+        <v>180.0581999208184</v>
       </c>
       <c r="C30">
-        <v>0.03068512635397427</v>
+        <v>0.009596213804147703</v>
       </c>
       <c r="D30">
-        <v>16.88994931247203</v>
+        <v>5.282023703405956</v>
       </c>
       <c r="E30">
-        <v>13.894818008964</v>
+        <v>4.345350996622855</v>
       </c>
       <c r="F30">
-        <v>4.5710675407129</v>
+        <v>1.429518031891673</v>
       </c>
       <c r="G30">
-        <v>53.95911783975842</v>
+        <v>16.87473030093805</v>
       </c>
       <c r="H30">
-        <v>0.9508308245609839</v>
+        <v>0.2973550044671557</v>
       </c>
       <c r="I30">
-        <v>666.0556929055581</v>
+        <v>208.2967741719482</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>601.6105639789317</v>
+        <v>188.1427350885906</v>
       </c>
       <c r="C31">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D31">
-        <v>13.95256682334644</v>
+        <v>4.363410885422311</v>
       </c>
       <c r="E31">
-        <v>16.10993392343652</v>
+        <v>5.038088112026502</v>
       </c>
       <c r="F31">
-        <v>3.294233032133877</v>
+        <v>1.03021131907277</v>
       </c>
       <c r="G31">
-        <v>25.09726411151557</v>
+        <v>7.848711767878164</v>
       </c>
       <c r="H31">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I31">
-        <v>660.2602941840303</v>
+        <v>206.4843688857352</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>453.3055097602279</v>
+        <v>141.7630333366349</v>
       </c>
       <c r="C32">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D32">
-        <v>9.546493089658096</v>
+        <v>2.985491658446845</v>
       </c>
       <c r="E32">
-        <v>11.27695374640557</v>
+        <v>3.52666167841855</v>
       </c>
       <c r="F32">
-        <v>1.915251762868534</v>
+        <v>0.5989600692283548</v>
       </c>
       <c r="G32">
-        <v>32.62644334497021</v>
+        <v>10.20332529824161</v>
       </c>
       <c r="H32">
-        <v>0.3961795102337432</v>
+        <v>0.1238979185279815</v>
       </c>
       <c r="I32">
-        <v>509.0865573670202</v>
+        <v>159.2075389540867</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>352.8481106487819</v>
+        <v>110.3468133425733</v>
       </c>
       <c r="C33">
-        <v>0.03506871583311345</v>
+        <v>0.01096710149045452</v>
       </c>
       <c r="D33">
-        <v>10.03605683784569</v>
+        <v>3.138593794777453</v>
       </c>
       <c r="E33">
-        <v>14.70031470513583</v>
+        <v>4.597255402224185</v>
       </c>
       <c r="F33">
-        <v>1.659884861152729</v>
+        <v>0.5190987266645739</v>
       </c>
       <c r="G33">
-        <v>18.82294808363665</v>
+        <v>5.886533825908625</v>
       </c>
       <c r="H33">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I33">
-        <v>398.3400915585262</v>
+        <v>124.5736009447553</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>283.9112047122588</v>
+        <v>88.78805289518108</v>
       </c>
       <c r="C34">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D34">
-        <v>8.077801845095314</v>
+        <v>2.526185249455025</v>
       </c>
       <c r="E34">
-        <v>9.46458618001895</v>
+        <v>2.959876765815569</v>
       </c>
       <c r="F34">
-        <v>0.9448575363484766</v>
+        <v>0.2954869674859882</v>
       </c>
       <c r="G34">
-        <v>17.56808487806088</v>
+        <v>5.494098237514715</v>
       </c>
       <c r="H34">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I34">
-        <v>320.1491166980111</v>
+        <v>100.1207991651383</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>202.0486289126379</v>
+        <v>63.18702486390281</v>
       </c>
       <c r="C35">
-        <v>0.03287692109354386</v>
+        <v>0.01028165764730111</v>
       </c>
       <c r="D35">
-        <v>6.119546852344933</v>
+        <v>1.913776704132594</v>
       </c>
       <c r="E35">
-        <v>5.638476873202784</v>
+        <v>1.763330839209275</v>
       </c>
       <c r="F35">
-        <v>0.8171740854905745</v>
+        <v>0.2555562962040979</v>
       </c>
       <c r="G35">
-        <v>18.82294808363665</v>
+        <v>5.886533825908625</v>
       </c>
       <c r="H35">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I35">
-        <v>233.7173594345466</v>
+        <v>73.09084293812148</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>120.6395853889151</v>
+        <v>37.72783078293636</v>
       </c>
       <c r="C36">
-        <v>0.04273999742160702</v>
+        <v>0.01336615494149144</v>
       </c>
       <c r="D36">
-        <v>2.203036866844176</v>
+        <v>0.6889596134877336</v>
       </c>
       <c r="E36">
-        <v>3.42336095873026</v>
+        <v>1.070593723805632</v>
       </c>
       <c r="F36">
-        <v>0.7661007051474134</v>
+        <v>0.2395840276913419</v>
       </c>
       <c r="G36">
-        <v>13.80349526133355</v>
+        <v>4.316791472332989</v>
       </c>
       <c r="H36">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I36">
-        <v>140.9575550804388</v>
+        <v>44.08190535890114</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>96.60237476631167</v>
+        <v>30.21063141641144</v>
       </c>
       <c r="C37">
-        <v>0.03178102372375907</v>
+        <v>0.009938935725724405</v>
       </c>
       <c r="D37">
-        <v>1.958254992750379</v>
+        <v>0.6124085453224296</v>
       </c>
       <c r="E37">
-        <v>2.215115914472521</v>
+        <v>0.6927371154036439</v>
       </c>
       <c r="F37">
-        <v>0.7150273248042525</v>
+        <v>0.2236117591785858</v>
       </c>
       <c r="G37">
-        <v>16.31322167248511</v>
+        <v>5.101662649120806</v>
       </c>
       <c r="H37">
-        <v>0.3961795102337432</v>
+        <v>0.1238979185279815</v>
       </c>
       <c r="I37">
-        <v>118.2319552047814</v>
+        <v>36.97488833969061</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>50.79561490059583</v>
+        <v>15.88540243492058</v>
       </c>
       <c r="C38">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D38">
-        <v>1.468691244562784</v>
+        <v>0.4593064089918223</v>
       </c>
       <c r="E38">
-        <v>0.402748348085913</v>
+        <v>0.1259522028006625</v>
       </c>
       <c r="F38">
-        <v>0.6639539444610918</v>
+        <v>0.2076394906658297</v>
       </c>
       <c r="G38">
-        <v>27.60699052266711</v>
+        <v>8.633582944665978</v>
       </c>
       <c r="H38">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I38">
-        <v>81.05449537299216</v>
+        <v>25.34831561108407</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>33.5613884164651</v>
+        <v>10.49571232307252</v>
       </c>
       <c r="C39">
-        <v>0.02082205002591111</v>
+        <v>0.00651171650995737</v>
       </c>
       <c r="D39">
-        <v>1.468691244562784</v>
+        <v>0.4593064089918223</v>
       </c>
       <c r="E39">
-        <v>0.402748348085913</v>
+        <v>0.1259522028006625</v>
       </c>
       <c r="F39">
-        <v>0.4085870427452872</v>
+        <v>0.127778148102049</v>
       </c>
       <c r="G39">
-        <v>18.82294808363665</v>
+        <v>5.886533825908625</v>
       </c>
       <c r="H39">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I39">
-        <v>54.7644210875684</v>
+        <v>17.12657420909122</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>33.5613884164651</v>
+        <v>10.49571232307252</v>
       </c>
       <c r="C40">
-        <v>0.01315076843741755</v>
+        <v>0.004112663058920445</v>
       </c>
       <c r="D40">
-        <v>1.713473118656581</v>
+        <v>0.5358574771571263</v>
       </c>
       <c r="E40">
-        <v>1.208245044257738</v>
+        <v>0.3778566084019875</v>
       </c>
       <c r="F40">
-        <v>0.6894906346326719</v>
+        <v>0.2156256249222077</v>
       </c>
       <c r="G40">
-        <v>30.11671693381866</v>
+        <v>9.418454121453792</v>
       </c>
       <c r="H40">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I40">
-        <v>67.38170081831491</v>
+        <v>21.07239840177214</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>77.32725304063919</v>
+        <v>24.18268852816034</v>
       </c>
       <c r="C41">
-        <v>0.01095897369784796</v>
+        <v>0.003427219215767036</v>
       </c>
       <c r="D41">
-        <v>4.161291859594556</v>
+        <v>1.301368158810163</v>
       </c>
       <c r="E41">
-        <v>1.208245044257738</v>
+        <v>0.3778566084019875</v>
       </c>
       <c r="F41">
-        <v>1.072540987206379</v>
+        <v>0.3354176387678786</v>
       </c>
       <c r="G41">
-        <v>57.7237074564858</v>
+        <v>18.05203706611978</v>
       </c>
       <c r="H41">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I41">
-        <v>141.662469165975</v>
+        <v>44.3023543868871</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>164.1786838751401</v>
+        <v>51.34389001286829</v>
       </c>
       <c r="C42">
-        <v>0.003287692109354387</v>
+        <v>0.001028165764730111</v>
       </c>
       <c r="D42">
-        <v>5.629983104157338</v>
+        <v>1.760674567801985</v>
       </c>
       <c r="E42">
-        <v>8.054966961718259</v>
+        <v>2.519044056013251</v>
       </c>
       <c r="F42">
-        <v>2.145081974412758</v>
+        <v>0.6708352775357572</v>
       </c>
       <c r="G42">
-        <v>63.99802348436467</v>
+        <v>20.01421500808931</v>
       </c>
       <c r="H42">
-        <v>0.3169436081869947</v>
+        <v>0.09911833482238522</v>
       </c>
       <c r="I42">
-        <v>244.3269707000894</v>
+        <v>76.4088054228957</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>304.0933909897277</v>
+        <v>95.09966368405574</v>
       </c>
       <c r="C43">
-        <v>0.01534256317698714</v>
+        <v>0.004798106902073851</v>
       </c>
       <c r="D43">
-        <v>13.70778494925265</v>
+        <v>4.28685981725701</v>
       </c>
       <c r="E43">
-        <v>19.33192070812381</v>
+        <v>6.045705734431801</v>
       </c>
       <c r="F43">
-        <v>4.647677611227643</v>
+        <v>1.453476434660808</v>
       </c>
       <c r="G43">
-        <v>89.09528759588019</v>
+        <v>27.86292677596747</v>
       </c>
       <c r="H43">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I43">
-        <v>432.0007070460434</v>
+        <v>135.1003447251533</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>514.3056008685328</v>
+        <v>160.8396996535708</v>
       </c>
       <c r="C44">
-        <v>0.01315076843741755</v>
+        <v>0.004112663058920445</v>
       </c>
       <c r="D44">
-        <v>15.91082181609682</v>
+        <v>4.975819430744743</v>
       </c>
       <c r="E44">
-        <v>22.55390749281113</v>
+        <v>7.053323356837101</v>
       </c>
       <c r="F44">
-        <v>4.954117893286606</v>
+        <v>1.549310045737345</v>
       </c>
       <c r="G44">
-        <v>122.9765941464262</v>
+        <v>38.45868766260298</v>
       </c>
       <c r="H44">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I44">
-        <v>682.3781469285726</v>
+        <v>213.4013240703694</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>581.6551438394121</v>
+        <v>181.9020412748717</v>
       </c>
       <c r="C45">
-        <v>0.03835640794246784</v>
+        <v>0.01199526725518463</v>
       </c>
       <c r="D45">
-        <v>19.33776805340998</v>
+        <v>6.047534385058996</v>
       </c>
       <c r="E45">
-        <v>16.10993392343652</v>
+        <v>5.038088112026502</v>
       </c>
       <c r="F45">
-        <v>5.592535147576119</v>
+        <v>1.748963402146796</v>
       </c>
       <c r="G45">
-        <v>134.2703629966082</v>
+        <v>41.99060795814813</v>
       </c>
       <c r="H45">
-        <v>1.347010334794728</v>
+        <v>0.4212529229951372</v>
       </c>
       <c r="I45">
-        <v>758.3511107031801</v>
+        <v>237.1604833225025</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>465.777647347428</v>
+        <v>145.6634669702091</v>
       </c>
       <c r="C46">
-        <v>0.04712358690074621</v>
+        <v>0.01473704262779826</v>
       </c>
       <c r="D46">
-        <v>22.51993241662935</v>
+        <v>7.042698271207941</v>
       </c>
       <c r="E46">
-        <v>11.27695374640557</v>
+        <v>3.52666167841855</v>
       </c>
       <c r="F46">
-        <v>6.767222895468818</v>
+        <v>2.116325577940187</v>
       </c>
       <c r="G46">
-        <v>204.5427025088517</v>
+        <v>63.96700090820705</v>
       </c>
       <c r="H46">
-        <v>1.347010334794728</v>
+        <v>0.4212529229951372</v>
       </c>
       <c r="I46">
-        <v>712.2785928364789</v>
+        <v>222.7521433716058</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>351.7142799590362</v>
+        <v>109.9922284667937</v>
       </c>
       <c r="C47">
-        <v>0.05260307374967019</v>
+        <v>0.01645065223568178</v>
       </c>
       <c r="D47">
-        <v>16.64516743837822</v>
+        <v>5.205472635240653</v>
       </c>
       <c r="E47">
-        <v>7.450844439589391</v>
+        <v>2.330115751812257</v>
       </c>
       <c r="F47">
-        <v>7.226883318557268</v>
+        <v>2.260075994554991</v>
       </c>
       <c r="G47">
-        <v>155.6030374913965</v>
+        <v>48.66201296084461</v>
       </c>
       <c r="H47">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I47">
-        <v>539.722882447315</v>
+        <v>168.7884910496547</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>362.8258207185415</v>
+        <v>113.4671602494326</v>
       </c>
       <c r="C48">
-        <v>0.03178102372375907</v>
+        <v>0.009938935725724405</v>
       </c>
       <c r="D48">
-        <v>18.11385868294099</v>
+        <v>5.664779044232474</v>
       </c>
       <c r="E48">
-        <v>8.256341135761218</v>
+        <v>2.58202015741358</v>
       </c>
       <c r="F48">
-        <v>7.380103459586752</v>
+        <v>2.307992800093261</v>
       </c>
       <c r="G48">
-        <v>223.3656505924885</v>
+        <v>69.8535347341156</v>
       </c>
       <c r="H48">
-        <v>0.8715949225142358</v>
+        <v>0.2725754207615594</v>
       </c>
       <c r="I48">
-        <v>620.8451505355569</v>
+        <v>194.1580013417748</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>374.3908937539451</v>
+        <v>117.0839259823833</v>
       </c>
       <c r="C49">
-        <v>0.04493179216117662</v>
+        <v>0.01405159878464485</v>
       </c>
       <c r="D49">
-        <v>13.95256682334644</v>
+        <v>4.363410885422311</v>
       </c>
       <c r="E49">
-        <v>8.860463657890085</v>
+        <v>2.770948461614576</v>
       </c>
       <c r="F49">
-        <v>4.698750991570802</v>
+        <v>1.469448703173563</v>
       </c>
       <c r="G49">
-        <v>135.525226202184</v>
+        <v>42.38304354654207</v>
       </c>
       <c r="H49">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I49">
-        <v>538.5028999477054</v>
+        <v>168.4069637660933</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_VOC.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>124.8138762743759</v>
+        <v>399.1084027903956</v>
       </c>
       <c r="C2">
-        <v>0.01645065223568178</v>
+        <v>0.05260307374967019</v>
       </c>
       <c r="D2">
-        <v>5.358574771571263</v>
+        <v>17.13473118656581</v>
       </c>
       <c r="E2">
-        <v>1.952259143410269</v>
+        <v>6.242599395331651</v>
       </c>
       <c r="F2">
-        <v>1.844797013223333</v>
+        <v>5.898975429635085</v>
       </c>
       <c r="G2">
-        <v>38.0662520742091</v>
+        <v>121.7217309408504</v>
       </c>
       <c r="H2">
-        <v>0.4212529229951372</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I2">
-        <v>172.4734628520207</v>
+        <v>551.5060531513229</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>123.395536771258</v>
+        <v>394.5730800314138</v>
       </c>
       <c r="C3">
-        <v>0.01747881800041188</v>
+        <v>0.05589076585902457</v>
       </c>
       <c r="D3">
-        <v>6.124085453224295</v>
+        <v>19.58254992750378</v>
       </c>
       <c r="E3">
-        <v>1.889283042009937</v>
+        <v>6.041225221288696</v>
       </c>
       <c r="F3">
-        <v>1.860769281736089</v>
+        <v>5.950048809978246</v>
       </c>
       <c r="G3">
-        <v>42.77547913493599</v>
+        <v>136.7800894077597</v>
       </c>
       <c r="H3">
-        <v>0.4460325067007334</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I3">
-        <v>176.5086650078655</v>
+        <v>564.4091304006448</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>139.4936901316462</v>
+        <v>446.0489933458572</v>
       </c>
       <c r="C4">
-        <v>0.01782153992198859</v>
+        <v>0.05698666322880936</v>
       </c>
       <c r="D4">
-        <v>6.659942930381425</v>
+        <v>21.29602304616036</v>
       </c>
       <c r="E4">
-        <v>2.204163549011595</v>
+        <v>7.048096091503476</v>
       </c>
       <c r="F4">
-        <v>2.196186920503967</v>
+        <v>7.022589797184624</v>
       </c>
       <c r="G4">
-        <v>32.57215383669436</v>
+        <v>104.1536460627895</v>
       </c>
       <c r="H4">
-        <v>0.2477958370559631</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I4">
-        <v>183.3917547452155</v>
+        <v>586.4186940271916</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>150.5567382559659</v>
+        <v>481.4245108659148</v>
       </c>
       <c r="C5">
-        <v>0.01130982341203122</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D5">
-        <v>6.813045066712031</v>
+        <v>21.78558679434796</v>
       </c>
       <c r="E5">
-        <v>2.330115751812257</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F5">
-        <v>1.908686087274357</v>
+        <v>6.103268951007728</v>
       </c>
       <c r="G5">
-        <v>21.97639295005886</v>
+        <v>70.27233951224351</v>
       </c>
       <c r="H5">
-        <v>0.1734570859391742</v>
+        <v>0.5546513143272407</v>
       </c>
       <c r="I5">
-        <v>183.7697450211746</v>
+        <v>587.6273664906336</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>182.8239619518983</v>
+        <v>584.60310363275</v>
       </c>
       <c r="C6">
-        <v>0.01679337415725848</v>
+        <v>0.05369897111945499</v>
       </c>
       <c r="D6">
-        <v>4.822717294414135</v>
+        <v>15.42125806790923</v>
       </c>
       <c r="E6">
-        <v>4.345350996622855</v>
+        <v>13.894818008964</v>
       </c>
       <c r="F6">
-        <v>1.365628957840649</v>
+        <v>4.366774019340256</v>
       </c>
       <c r="G6">
-        <v>12.16550324021115</v>
+        <v>38.90075937284913</v>
       </c>
       <c r="H6">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I6">
-        <v>206.0603270729619</v>
+        <v>658.9043660159139</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>182.5402940512749</v>
+        <v>583.6960390809538</v>
       </c>
       <c r="C7">
-        <v>0.009253491882571</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D7">
-        <v>3.444798067438667</v>
+        <v>11.01518433422088</v>
       </c>
       <c r="E7">
-        <v>4.786183706425175</v>
+        <v>15.30443722726469</v>
       </c>
       <c r="F7">
-        <v>0.7826411571250501</v>
+        <v>2.502595636814884</v>
       </c>
       <c r="G7">
-        <v>5.886533825908625</v>
+        <v>18.82294808363665</v>
       </c>
       <c r="H7">
-        <v>0.2973550044671557</v>
+        <v>0.9508308245609839</v>
       </c>
       <c r="I7">
-        <v>197.7470593045221</v>
+        <v>632.3216244164361</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>127.5087213302999</v>
+        <v>407.7255160324611</v>
       </c>
       <c r="C8">
-        <v>0.009596213804147703</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D8">
-        <v>2.985491658446845</v>
+        <v>9.546493089658096</v>
       </c>
       <c r="E8">
-        <v>3.085828968616231</v>
+        <v>9.867334528104866</v>
       </c>
       <c r="F8">
-        <v>0.5989600692283548</v>
+        <v>1.915251762868534</v>
       </c>
       <c r="G8">
-        <v>7.063840591090347</v>
+        <v>22.587537700364</v>
       </c>
       <c r="H8">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I8">
-        <v>141.2772184151914</v>
+        <v>451.7520541418575</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>104.1061195288545</v>
+        <v>332.8926905092617</v>
       </c>
       <c r="C9">
-        <v>0.008568048039417591</v>
+        <v>0.02739743424461989</v>
       </c>
       <c r="D9">
-        <v>2.143429908628505</v>
+        <v>6.853892474626325</v>
       </c>
       <c r="E9">
-        <v>4.597255402224185</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F9">
-        <v>0.3434037730242567</v>
+        <v>1.09807767737796</v>
       </c>
       <c r="G9">
-        <v>3.924355883939082</v>
+        <v>12.54863205575778</v>
       </c>
       <c r="H9">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I9">
-        <v>115.1974712958267</v>
+        <v>368.3587125625445</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>77.01583501930241</v>
+        <v>246.2680258127101</v>
       </c>
       <c r="C10">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D10">
-        <v>1.684123499636682</v>
+        <v>5.385201230063543</v>
       </c>
       <c r="E10">
-        <v>3.0228528672159</v>
+        <v>9.665960354061907</v>
       </c>
       <c r="F10">
-        <v>0.3114592359987444</v>
+        <v>0.9959309166916375</v>
       </c>
       <c r="G10">
-        <v>3.924355883939082</v>
+        <v>12.54863205575778</v>
       </c>
       <c r="H10">
-        <v>0.09911833482238522</v>
+        <v>0.3169436081869947</v>
       </c>
       <c r="I10">
-        <v>86.06391383550358</v>
+        <v>275.2004201301281</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>59.07384030486087</v>
+        <v>188.8961929115908</v>
       </c>
       <c r="C11">
-        <v>0.009938935725724405</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D11">
-        <v>1.684123499636682</v>
+        <v>5.385201230063543</v>
       </c>
       <c r="E11">
-        <v>1.385474230807288</v>
+        <v>4.430231828945042</v>
       </c>
       <c r="F11">
-        <v>0.3194453702551226</v>
+        <v>1.021467606863218</v>
       </c>
       <c r="G11">
-        <v>5.886533825908625</v>
+        <v>18.82294808363665</v>
       </c>
       <c r="H11">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I11">
-        <v>68.4336949183111</v>
+        <v>218.8255303909633</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>36.38040825497434</v>
+        <v>116.3310287678824</v>
       </c>
       <c r="C12">
-        <v>0.009253491882571</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D12">
-        <v>0.3827553408265185</v>
+        <v>1.223909370468987</v>
       </c>
       <c r="E12">
-        <v>0.5038088112026501</v>
+        <v>1.610993392343652</v>
       </c>
       <c r="F12">
-        <v>0.1916672221530735</v>
+        <v>0.6128805641179307</v>
       </c>
       <c r="G12">
-        <v>6.278969414302527</v>
+        <v>20.07781128921244</v>
       </c>
       <c r="I12">
-        <v>43.74686253534168</v>
+        <v>139.8862126130096</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>22.69343204988653</v>
+        <v>72.5651641437083</v>
       </c>
       <c r="C13">
-        <v>0.01130982341203122</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D13">
-        <v>0.3062042726612148</v>
+        <v>0.9791274963751893</v>
       </c>
       <c r="E13">
-        <v>0.251904405601325</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F13">
-        <v>0.2555562962040979</v>
+        <v>0.8171740854905745</v>
       </c>
       <c r="G13">
-        <v>5.886533825908625</v>
+        <v>18.82294808363665</v>
       </c>
       <c r="H13">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I13">
-        <v>29.42972025737942</v>
+        <v>94.1053110206322</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>14.25431200633497</v>
+        <v>45.57999372776681</v>
       </c>
       <c r="C14">
-        <v>0.009253491882571</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D14">
-        <v>0.3062042726612148</v>
+        <v>0.9791274963751893</v>
       </c>
       <c r="E14">
-        <v>0.1889283042009938</v>
+        <v>0.6041225221288692</v>
       </c>
       <c r="F14">
-        <v>0.2156256249222077</v>
+        <v>0.6894906346326719</v>
       </c>
       <c r="G14">
-        <v>12.55793882860505</v>
+        <v>40.15562257842488</v>
       </c>
       <c r="H14">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I14">
-        <v>27.55704211231261</v>
+        <v>88.11718209035935</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>10.56662929822842</v>
+        <v>33.78815455441418</v>
       </c>
       <c r="C15">
-        <v>0.005826272666803961</v>
+        <v>0.01863025528634152</v>
       </c>
       <c r="D15">
-        <v>0.2296532044959112</v>
+        <v>0.7343456222813922</v>
       </c>
       <c r="F15">
-        <v>0.1437504166148051</v>
+        <v>0.4596604230884482</v>
       </c>
       <c r="G15">
-        <v>9.810889709847698</v>
+        <v>31.37158013939443</v>
       </c>
       <c r="H15">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I15">
-        <v>20.80630806926483</v>
+        <v>66.53084279855828</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>11.13396509947558</v>
+        <v>35.6022836580069</v>
       </c>
       <c r="C16">
-        <v>0.003084497294190333</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D16">
-        <v>0.7655106816530369</v>
+        <v>2.447818740937973</v>
       </c>
       <c r="E16">
-        <v>0.3148805070016564</v>
+        <v>1.006870870214782</v>
       </c>
       <c r="F16">
-        <v>0.1677088193839393</v>
+        <v>0.5362704936031895</v>
       </c>
       <c r="G16">
-        <v>11.38063206342334</v>
+        <v>36.39103296169755</v>
       </c>
       <c r="H16">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I16">
-        <v>23.79056125193733</v>
+        <v>76.07337570283522</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>25.45919408096645</v>
+        <v>81.40904352372272</v>
       </c>
       <c r="C17">
-        <v>0.003084497294190333</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D17">
-        <v>0.7655106816530369</v>
+        <v>2.447818740937973</v>
       </c>
       <c r="E17">
-        <v>0.1889283042009938</v>
+        <v>0.6041225221288692</v>
       </c>
       <c r="F17">
-        <v>0.3034731017423664</v>
+        <v>0.970394226520057</v>
       </c>
       <c r="G17">
-        <v>15.30498794736242</v>
+        <v>48.9396650174553</v>
       </c>
       <c r="H17">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I17">
-        <v>42.07473778063065</v>
+        <v>134.5393789111865</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>54.3224029694159</v>
+        <v>173.7028616690017</v>
       </c>
       <c r="C18">
-        <v>0.005140828823650554</v>
+        <v>0.01643846054677193</v>
       </c>
       <c r="D18">
-        <v>1.607572431471378</v>
+        <v>5.140419355969743</v>
       </c>
       <c r="E18">
-        <v>2.141187447611264</v>
+        <v>6.84672191746052</v>
       </c>
       <c r="F18">
-        <v>0.7027798145612695</v>
+        <v>2.247228735099079</v>
       </c>
       <c r="G18">
-        <v>20.01421500808931</v>
+        <v>63.99802348436467</v>
       </c>
       <c r="H18">
-        <v>0.1486775022335778</v>
+        <v>0.4754154122804919</v>
       </c>
       <c r="I18">
-        <v>78.94197600220635</v>
+        <v>252.4271090347229</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>94.74507880827628</v>
+        <v>302.9595602999823</v>
       </c>
       <c r="C19">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D19">
-        <v>4.210308749091705</v>
+        <v>13.46300307515884</v>
       </c>
       <c r="E19">
-        <v>5.856777430230805</v>
+        <v>18.72779818599495</v>
       </c>
       <c r="F19">
-        <v>1.293753749533246</v>
+        <v>4.136943807796033</v>
       </c>
       <c r="G19">
-        <v>28.25536236436139</v>
+        <v>90.350150801456</v>
       </c>
       <c r="H19">
-        <v>0.2477958370559631</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I19">
-        <v>134.6152459331378</v>
+        <v>430.4495413435117</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>161.3361184796621</v>
+        <v>515.8929638341763</v>
       </c>
       <c r="C20">
-        <v>0.006854438431534072</v>
+        <v>0.02191794739569591</v>
       </c>
       <c r="D20">
-        <v>5.205472635240653</v>
+        <v>16.64516743837822</v>
       </c>
       <c r="E20">
-        <v>5.730825227430145</v>
+        <v>18.32504983790905</v>
       </c>
       <c r="F20">
-        <v>1.469448703173563</v>
+        <v>4.698750991570802</v>
       </c>
       <c r="G20">
-        <v>38.85112325099691</v>
+        <v>124.231457352002</v>
       </c>
       <c r="H20">
-        <v>0.4955916741119261</v>
+        <v>1.584718040934973</v>
       </c>
       <c r="I20">
-        <v>213.0954344090468</v>
+        <v>681.400025442367</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>170.0589064238373</v>
+        <v>543.7851988019141</v>
       </c>
       <c r="C21">
-        <v>0.01028165764730111</v>
+        <v>0.03287692109354386</v>
       </c>
       <c r="D21">
-        <v>4.1337576809264</v>
+        <v>13.21822120106505</v>
       </c>
       <c r="E21">
-        <v>3.96749438822087</v>
+        <v>12.68657296470627</v>
       </c>
       <c r="F21">
-        <v>1.269795346764112</v>
+        <v>4.060333737281291</v>
       </c>
       <c r="G21">
-        <v>31.78728265990657</v>
+        <v>101.6439196516379</v>
       </c>
       <c r="H21">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I21">
-        <v>211.5744323291809</v>
+        <v>676.5364259063527</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>136.7988450757222</v>
+        <v>437.4318801037919</v>
       </c>
       <c r="C22">
-        <v>0.01473704262779826</v>
+        <v>0.04712358690074621</v>
       </c>
       <c r="D22">
-        <v>7.19580040753855</v>
+        <v>23.00949616481695</v>
       </c>
       <c r="E22">
-        <v>3.085828968616231</v>
+        <v>9.867334528104866</v>
       </c>
       <c r="F22">
-        <v>2.132297846452942</v>
+        <v>6.81829627581198</v>
       </c>
       <c r="G22">
-        <v>56.11828914032887</v>
+        <v>179.4454383973364</v>
       </c>
       <c r="H22">
-        <v>0.4212529229951372</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I22">
-        <v>205.7670514042817</v>
+        <v>657.9665793915575</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>107.4392173611815</v>
+        <v>343.5506989928691</v>
       </c>
       <c r="C23">
-        <v>0.01473704262779826</v>
+        <v>0.04712358690074621</v>
       </c>
       <c r="D23">
-        <v>5.817881180563083</v>
+        <v>18.60342243112859</v>
       </c>
       <c r="E23">
-        <v>1.889283042009937</v>
+        <v>6.041225221288696</v>
       </c>
       <c r="F23">
-        <v>2.10035330942743</v>
+        <v>6.716149515125658</v>
       </c>
       <c r="G23">
-        <v>54.54854678675322</v>
+        <v>174.4259855750331</v>
       </c>
       <c r="H23">
-        <v>0.2477958370559631</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I23">
-        <v>172.057814559619</v>
+        <v>550.1769643428133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>122.048114243296</v>
+        <v>390.2645234103813</v>
       </c>
       <c r="C24">
-        <v>0.01507976454937496</v>
+        <v>0.04821948427053101</v>
       </c>
       <c r="D24">
-        <v>6.047534385058996</v>
+        <v>19.33776805340998</v>
       </c>
       <c r="E24">
-        <v>2.896900664415238</v>
+        <v>9.263212005976001</v>
       </c>
       <c r="F24">
-        <v>2.18021465199121</v>
+        <v>6.971516416841463</v>
       </c>
       <c r="G24">
-        <v>48.2695773724507</v>
+        <v>154.3481742858206</v>
       </c>
       <c r="H24">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I24">
-        <v>181.977792339579</v>
+        <v>581.8973675996816</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>117.0839259823833</v>
+        <v>374.3908937539451</v>
       </c>
       <c r="C25">
-        <v>0.01405159878464485</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D25">
-        <v>4.363410885422311</v>
+        <v>13.95256682334644</v>
       </c>
       <c r="E25">
-        <v>2.770948461614576</v>
+        <v>8.860463657890085</v>
       </c>
       <c r="F25">
-        <v>1.469448703173563</v>
+        <v>4.698750991570802</v>
       </c>
       <c r="G25">
-        <v>42.38304354654207</v>
+        <v>135.525226202184</v>
       </c>
       <c r="H25">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I25">
-        <v>168.4069637660933</v>
+        <v>538.5028999477054</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>117.7930957339422</v>
+        <v>376.6585551334359</v>
       </c>
       <c r="C26">
-        <v>0.01233798917676133</v>
+        <v>0.03945230531225264</v>
       </c>
       <c r="D26">
-        <v>4.1337576809264</v>
+        <v>13.21822120106505</v>
       </c>
       <c r="E26">
-        <v>1.952259143410269</v>
+        <v>6.242599395331651</v>
       </c>
       <c r="F26">
-        <v>1.868755415992467</v>
+        <v>5.975585500149826</v>
       </c>
       <c r="G26">
-        <v>44.34522148851162</v>
+        <v>141.7995422300628</v>
       </c>
       <c r="H26">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I26">
-        <v>170.6257987097773</v>
+        <v>545.5979097083392</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>127.0123025042087</v>
+        <v>406.1381530668176</v>
       </c>
       <c r="C27">
-        <v>0.01336615494149144</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D27">
-        <v>6.58339186221612</v>
+        <v>21.05124117206657</v>
       </c>
       <c r="E27">
-        <v>2.833924563014907</v>
+        <v>9.061837831933047</v>
       </c>
       <c r="F27">
-        <v>1.804866341941442</v>
+        <v>5.77129197877718</v>
       </c>
       <c r="G27">
-        <v>34.53433177866391</v>
+        <v>110.4279620906684</v>
       </c>
       <c r="H27">
-        <v>0.3716937555839445</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I27">
-        <v>173.1538769605705</v>
+        <v>553.6817646683855</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>130.4872342868476</v>
+        <v>417.2496938263229</v>
       </c>
       <c r="C28">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D28">
-        <v>6.813045066712031</v>
+        <v>21.78558679434796</v>
       </c>
       <c r="E28">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F28">
-        <v>1.764935670659552</v>
+        <v>5.643608527919279</v>
       </c>
       <c r="G28">
-        <v>40.81330119296645</v>
+        <v>130.5057733798808</v>
       </c>
       <c r="H28">
-        <v>0.3716937555839445</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I28">
-        <v>182.5290021685151</v>
+        <v>583.6599318352913</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>150.6276552311218</v>
+        <v>481.6512770038639</v>
       </c>
       <c r="C29">
-        <v>0.01130982341203122</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D29">
-        <v>5.128921567075349</v>
+        <v>16.40038556428443</v>
       </c>
       <c r="E29">
-        <v>3.085828968616231</v>
+        <v>9.867334528104866</v>
       </c>
       <c r="F29">
-        <v>1.653129791070258</v>
+        <v>5.286094865517152</v>
       </c>
       <c r="G29">
-        <v>27.86292677596747</v>
+        <v>89.09528759588019</v>
       </c>
       <c r="H29">
-        <v>0.4708120904063298</v>
+        <v>1.505482138888225</v>
       </c>
       <c r="I29">
-        <v>188.8405842476695</v>
+        <v>603.8420263097416</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>180.0581999208184</v>
+        <v>575.7592242527359</v>
       </c>
       <c r="C30">
-        <v>0.009596213804147703</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D30">
-        <v>5.282023703405956</v>
+        <v>16.88994931247203</v>
       </c>
       <c r="E30">
-        <v>4.345350996622855</v>
+        <v>13.894818008964</v>
       </c>
       <c r="F30">
-        <v>1.429518031891673</v>
+        <v>4.5710675407129</v>
       </c>
       <c r="G30">
-        <v>16.87473030093805</v>
+        <v>53.95911783975842</v>
       </c>
       <c r="H30">
-        <v>0.2973550044671557</v>
+        <v>0.9508308245609839</v>
       </c>
       <c r="I30">
-        <v>208.2967741719482</v>
+        <v>666.0556929055581</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>188.1427350885906</v>
+        <v>601.6105639789317</v>
       </c>
       <c r="C31">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D31">
-        <v>4.363410885422311</v>
+        <v>13.95256682334644</v>
       </c>
       <c r="E31">
-        <v>5.038088112026502</v>
+        <v>16.10993392343652</v>
       </c>
       <c r="F31">
-        <v>1.03021131907277</v>
+        <v>3.294233032133877</v>
       </c>
       <c r="G31">
-        <v>7.848711767878164</v>
+        <v>25.09726411151557</v>
       </c>
       <c r="H31">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I31">
-        <v>206.4843688857352</v>
+        <v>660.2602941840303</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>141.7630333366349</v>
+        <v>453.3055097602279</v>
       </c>
       <c r="C32">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D32">
-        <v>2.985491658446845</v>
+        <v>9.546493089658096</v>
       </c>
       <c r="E32">
-        <v>3.52666167841855</v>
+        <v>11.27695374640557</v>
       </c>
       <c r="F32">
-        <v>0.5989600692283548</v>
+        <v>1.915251762868534</v>
       </c>
       <c r="G32">
-        <v>10.20332529824161</v>
+        <v>32.62644334497021</v>
       </c>
       <c r="H32">
-        <v>0.1238979185279815</v>
+        <v>0.3961795102337432</v>
       </c>
       <c r="I32">
-        <v>159.2075389540867</v>
+        <v>509.0865573670202</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>110.3468133425733</v>
+        <v>352.8481106487819</v>
       </c>
       <c r="C33">
-        <v>0.01096710149045452</v>
+        <v>0.03506871583311345</v>
       </c>
       <c r="D33">
-        <v>3.138593794777453</v>
+        <v>10.03605683784569</v>
       </c>
       <c r="E33">
-        <v>4.597255402224185</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F33">
-        <v>0.5190987266645739</v>
+        <v>1.659884861152729</v>
       </c>
       <c r="G33">
-        <v>5.886533825908625</v>
+        <v>18.82294808363665</v>
       </c>
       <c r="H33">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I33">
-        <v>124.5736009447553</v>
+        <v>398.3400915585262</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>88.78805289518108</v>
+        <v>283.9112047122588</v>
       </c>
       <c r="C34">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D34">
-        <v>2.526185249455025</v>
+        <v>8.077801845095314</v>
       </c>
       <c r="E34">
-        <v>2.959876765815569</v>
+        <v>9.46458618001895</v>
       </c>
       <c r="F34">
-        <v>0.2954869674859882</v>
+        <v>0.9448575363484766</v>
       </c>
       <c r="G34">
-        <v>5.494098237514715</v>
+        <v>17.56808487806088</v>
       </c>
       <c r="H34">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I34">
-        <v>100.1207991651383</v>
+        <v>320.1491166980111</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>63.18702486390281</v>
+        <v>202.0486289126379</v>
       </c>
       <c r="C35">
-        <v>0.01028165764730111</v>
+        <v>0.03287692109354386</v>
       </c>
       <c r="D35">
-        <v>1.913776704132594</v>
+        <v>6.119546852344933</v>
       </c>
       <c r="E35">
-        <v>1.763330839209275</v>
+        <v>5.638476873202784</v>
       </c>
       <c r="F35">
-        <v>0.2555562962040979</v>
+        <v>0.8171740854905745</v>
       </c>
       <c r="G35">
-        <v>5.886533825908625</v>
+        <v>18.82294808363665</v>
       </c>
       <c r="H35">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I35">
-        <v>73.09084293812148</v>
+        <v>233.7173594345466</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>37.72783078293636</v>
+        <v>120.6395853889151</v>
       </c>
       <c r="C36">
-        <v>0.01336615494149144</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D36">
-        <v>0.6889596134877336</v>
+        <v>2.203036866844176</v>
       </c>
       <c r="E36">
-        <v>1.070593723805632</v>
+        <v>3.42336095873026</v>
       </c>
       <c r="F36">
-        <v>0.2395840276913419</v>
+        <v>0.7661007051474134</v>
       </c>
       <c r="G36">
-        <v>4.316791472332989</v>
+        <v>13.80349526133355</v>
       </c>
       <c r="H36">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I36">
-        <v>44.08190535890114</v>
+        <v>140.9575550804388</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>30.21063141641144</v>
+        <v>96.60237476631167</v>
       </c>
       <c r="C37">
-        <v>0.009938935725724405</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D37">
-        <v>0.6124085453224296</v>
+        <v>1.958254992750379</v>
       </c>
       <c r="E37">
-        <v>0.6927371154036439</v>
+        <v>2.215115914472521</v>
       </c>
       <c r="F37">
-        <v>0.2236117591785858</v>
+        <v>0.7150273248042525</v>
       </c>
       <c r="G37">
-        <v>5.101662649120806</v>
+        <v>16.31322167248511</v>
       </c>
       <c r="H37">
-        <v>0.1238979185279815</v>
+        <v>0.3961795102337432</v>
       </c>
       <c r="I37">
-        <v>36.97488833969061</v>
+        <v>118.2319552047814</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>15.88540243492058</v>
+        <v>50.79561490059583</v>
       </c>
       <c r="C38">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D38">
-        <v>0.4593064089918223</v>
+        <v>1.468691244562784</v>
       </c>
       <c r="E38">
-        <v>0.1259522028006625</v>
+        <v>0.402748348085913</v>
       </c>
       <c r="F38">
-        <v>0.2076394906658297</v>
+        <v>0.6639539444610918</v>
       </c>
       <c r="G38">
-        <v>8.633582944665978</v>
+        <v>27.60699052266711</v>
       </c>
       <c r="H38">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I38">
-        <v>25.34831561108407</v>
+        <v>81.05449537299216</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>10.49571232307252</v>
+        <v>33.5613884164651</v>
       </c>
       <c r="C39">
-        <v>0.00651171650995737</v>
+        <v>0.02082205002591111</v>
       </c>
       <c r="D39">
-        <v>0.4593064089918223</v>
+        <v>1.468691244562784</v>
       </c>
       <c r="E39">
-        <v>0.1259522028006625</v>
+        <v>0.402748348085913</v>
       </c>
       <c r="F39">
-        <v>0.127778148102049</v>
+        <v>0.4085870427452872</v>
       </c>
       <c r="G39">
-        <v>5.886533825908625</v>
+        <v>18.82294808363665</v>
       </c>
       <c r="H39">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I39">
-        <v>17.12657420909122</v>
+        <v>54.7644210875684</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>10.49571232307252</v>
+        <v>33.5613884164651</v>
       </c>
       <c r="C40">
-        <v>0.004112663058920445</v>
+        <v>0.01315076843741755</v>
       </c>
       <c r="D40">
-        <v>0.5358574771571263</v>
+        <v>1.713473118656581</v>
       </c>
       <c r="E40">
-        <v>0.3778566084019875</v>
+        <v>1.208245044257738</v>
       </c>
       <c r="F40">
-        <v>0.2156256249222077</v>
+        <v>0.6894906346326719</v>
       </c>
       <c r="G40">
-        <v>9.418454121453792</v>
+        <v>30.11671693381866</v>
       </c>
       <c r="H40">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I40">
-        <v>21.07239840177214</v>
+        <v>67.38170081831491</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>24.18268852816034</v>
+        <v>77.32725304063919</v>
       </c>
       <c r="C41">
-        <v>0.003427219215767036</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D41">
-        <v>1.301368158810163</v>
+        <v>4.161291859594556</v>
       </c>
       <c r="E41">
-        <v>0.3778566084019875</v>
+        <v>1.208245044257738</v>
       </c>
       <c r="F41">
-        <v>0.3354176387678786</v>
+        <v>1.072540987206379</v>
       </c>
       <c r="G41">
-        <v>18.05203706611978</v>
+        <v>57.7237074564858</v>
       </c>
       <c r="H41">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I41">
-        <v>44.3023543868871</v>
+        <v>141.662469165975</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>51.34389001286829</v>
+        <v>164.1786838751401</v>
       </c>
       <c r="C42">
-        <v>0.001028165764730111</v>
+        <v>0.003287692109354387</v>
       </c>
       <c r="D42">
-        <v>1.760674567801985</v>
+        <v>5.629983104157338</v>
       </c>
       <c r="E42">
-        <v>2.519044056013251</v>
+        <v>8.054966961718259</v>
       </c>
       <c r="F42">
-        <v>0.6708352775357572</v>
+        <v>2.145081974412758</v>
       </c>
       <c r="G42">
-        <v>20.01421500808931</v>
+        <v>63.99802348436467</v>
       </c>
       <c r="H42">
-        <v>0.09911833482238522</v>
+        <v>0.3169436081869947</v>
       </c>
       <c r="I42">
-        <v>76.4088054228957</v>
+        <v>244.3269707000894</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>95.09966368405574</v>
+        <v>304.0933909897277</v>
       </c>
       <c r="C43">
-        <v>0.004798106902073851</v>
+        <v>0.01534256317698714</v>
       </c>
       <c r="D43">
-        <v>4.28685981725701</v>
+        <v>13.70778494925265</v>
       </c>
       <c r="E43">
-        <v>6.045705734431801</v>
+        <v>19.33192070812381</v>
       </c>
       <c r="F43">
-        <v>1.453476434660808</v>
+        <v>4.647677611227643</v>
       </c>
       <c r="G43">
-        <v>27.86292677596747</v>
+        <v>89.09528759588019</v>
       </c>
       <c r="H43">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I43">
-        <v>135.1003447251533</v>
+        <v>432.0007070460434</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>160.8396996535708</v>
+        <v>514.3056008685328</v>
       </c>
       <c r="C44">
-        <v>0.004112663058920445</v>
+        <v>0.01315076843741755</v>
       </c>
       <c r="D44">
-        <v>4.975819430744743</v>
+        <v>15.91082181609682</v>
       </c>
       <c r="E44">
-        <v>7.053323356837101</v>
+        <v>22.55390749281113</v>
       </c>
       <c r="F44">
-        <v>1.549310045737345</v>
+        <v>4.954117893286606</v>
       </c>
       <c r="G44">
-        <v>38.45868766260298</v>
+        <v>122.9765941464262</v>
       </c>
       <c r="H44">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I44">
-        <v>213.4013240703694</v>
+        <v>682.3781469285726</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>181.9020412748717</v>
+        <v>581.6551438394121</v>
       </c>
       <c r="C45">
-        <v>0.01199526725518463</v>
+        <v>0.03835640794246784</v>
       </c>
       <c r="D45">
-        <v>6.047534385058996</v>
+        <v>19.33776805340998</v>
       </c>
       <c r="E45">
-        <v>5.038088112026502</v>
+        <v>16.10993392343652</v>
       </c>
       <c r="F45">
-        <v>1.748963402146796</v>
+        <v>5.592535147576119</v>
       </c>
       <c r="G45">
-        <v>41.99060795814813</v>
+        <v>134.2703629966082</v>
       </c>
       <c r="H45">
-        <v>0.4212529229951372</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I45">
-        <v>237.1604833225025</v>
+        <v>758.3511107031801</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>145.6634669702091</v>
+        <v>465.777647347428</v>
       </c>
       <c r="C46">
-        <v>0.01473704262779826</v>
+        <v>0.04712358690074621</v>
       </c>
       <c r="D46">
-        <v>7.042698271207941</v>
+        <v>22.51993241662935</v>
       </c>
       <c r="E46">
-        <v>3.52666167841855</v>
+        <v>11.27695374640557</v>
       </c>
       <c r="F46">
-        <v>2.116325577940187</v>
+        <v>6.767222895468818</v>
       </c>
       <c r="G46">
-        <v>63.96700090820705</v>
+        <v>204.5427025088517</v>
       </c>
       <c r="H46">
-        <v>0.4212529229951372</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I46">
-        <v>222.7521433716058</v>
+        <v>712.2785928364789</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>109.9922284667937</v>
+        <v>351.7142799590362</v>
       </c>
       <c r="C47">
-        <v>0.01645065223568178</v>
+        <v>0.05260307374967019</v>
       </c>
       <c r="D47">
-        <v>5.205472635240653</v>
+        <v>16.64516743837822</v>
       </c>
       <c r="E47">
-        <v>2.330115751812257</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F47">
-        <v>2.260075994554991</v>
+        <v>7.226883318557268</v>
       </c>
       <c r="G47">
-        <v>48.66201296084461</v>
+        <v>155.6030374913965</v>
       </c>
       <c r="H47">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I47">
-        <v>168.7884910496547</v>
+        <v>539.722882447315</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>113.4671602494326</v>
+        <v>362.8258207185415</v>
       </c>
       <c r="C48">
-        <v>0.009938935725724405</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D48">
-        <v>5.664779044232474</v>
+        <v>18.11385868294099</v>
       </c>
       <c r="E48">
-        <v>2.58202015741358</v>
+        <v>8.256341135761218</v>
       </c>
       <c r="F48">
-        <v>2.307992800093261</v>
+        <v>7.380103459586752</v>
       </c>
       <c r="G48">
-        <v>69.8535347341156</v>
+        <v>223.3656505924885</v>
       </c>
       <c r="H48">
-        <v>0.2725754207615594</v>
+        <v>0.8715949225142358</v>
       </c>
       <c r="I48">
-        <v>194.1580013417748</v>
+        <v>620.8451505355569</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>117.0839259823833</v>
+        <v>374.3908937539451</v>
       </c>
       <c r="C49">
-        <v>0.01405159878464485</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D49">
-        <v>4.363410885422311</v>
+        <v>13.95256682334644</v>
       </c>
       <c r="E49">
-        <v>2.770948461614576</v>
+        <v>8.860463657890085</v>
       </c>
       <c r="F49">
-        <v>1.469448703173563</v>
+        <v>4.698750991570802</v>
       </c>
       <c r="G49">
-        <v>42.38304354654207</v>
+        <v>135.525226202184</v>
       </c>
       <c r="H49">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I49">
-        <v>168.4069637660933</v>
+        <v>538.5028999477054</v>
       </c>
     </row>
   </sheetData>
